--- a/example/popcount/popcount2.xlsx
+++ b/example/popcount/popcount2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\verilog\GitHub\StamicCGRA\example\popcount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0629EA-02D2-4932-B58D-6CA4CC3188DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501FD467-7DCD-4138-94BA-59B0435B8332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
-  <si>
-    <t>LOOP_HEAD
-(U0,L1,L0,D0)
-DATA(0x4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>MOV1_2
 (U0,D0,L0)</t>
@@ -45,11 +39,6 @@
   <si>
     <t>MOV1_2
 (D1,U0,U0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOV1_2
-(R0,U0,U0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -99,11 +88,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MOV1_2
-(D0,U1,U1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ADD_DATA
 (D1,U1)
 DATA(0x1)</t>
@@ -111,32 +95,12 @@
   </si>
   <si>
     <t>MOV1_2
-(D1,R1,R1)
-MOV1_2
-(D0,R0,R0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOV1_2
 (L0,R0,R0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOOP_HEAD
-(L1,R0,D0,D1)
-DATA(0x4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SWITCH_PRED
 (L0,D0,U1,D0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOV1_2
-(L0,U0,U1)
-DISCARD
-(U0,U0,U0,U0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -226,16 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TOK_TO_BUS
-(0x2,U1,HB,VB)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOV1_2
-(R0,U0,U1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SWITCH_PRED
 (R1,D1,U1,L0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -260,6 +214,42 @@
     <t>TAG_MATCHER
 (0x2,HB,VB)
 DATA(0x100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV1_2
+(R0,U1,U1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV1_2
+(D0,R1,R1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OX(U0,L1,D0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOK_TO_BUS
+(0x2,U0,HB,VB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV1_2
+(L0,U0,U0)
+DISCARD
+(U0,U0,U0,U0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV1_2
+(L1,D0,D0)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OX(U0,R0,D0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -831,7 +821,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
@@ -854,8 +844,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10877550" y="8924925"/>
-          <a:ext cx="628650" cy="0"/>
+          <a:off x="1066800" y="7515225"/>
+          <a:ext cx="781050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -881,13 +871,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
@@ -904,111 +894,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10887075" y="7839075"/>
+          <a:off x="1066800" y="6429375"/>
           <a:ext cx="0" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="直線接點 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2757E0B2-30E2-49F8-8E80-C148A59EE799}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11020425" y="2476500"/>
-          <a:ext cx="0" cy="6448425"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線單箭頭接點 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFA2222-707C-4726-B80C-EF235AB597CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11020425" y="2466975"/>
-          <a:ext cx="847725" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1244,7 +1131,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -1266,8 +1153,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12306300" y="1743075"/>
-          <a:ext cx="0" cy="6096000"/>
+          <a:off x="4133850" y="1047750"/>
+          <a:ext cx="0" cy="5381625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1294,115 +1181,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="直線單箭頭接點 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFBE7A0-EC78-4A8F-BDE2-30AA89F668E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11896725" y="1752600"/>
-          <a:ext cx="409575" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="142" name="直線接點 141">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AD3260-2C2D-4771-90A6-02FD429FC65E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12106275" y="2438400"/>
-          <a:ext cx="0" cy="6486525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
@@ -1419,113 +1203,10 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11496675" y="2447925"/>
-          <a:ext cx="609600" cy="0"/>
+          <a:off x="3724275" y="1038225"/>
+          <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直線單箭頭接點 145">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF4DC35-B892-4D8B-801A-466584B96E3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11496675" y="2133600"/>
-          <a:ext cx="0" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直線單箭頭接點 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F995754-F1BB-434F-8C53-4AA8855B708B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11382375" y="2133600"/>
-          <a:ext cx="0" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1713,8 +1394,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -1731,14 +1412,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1762125" y="942975"/>
-          <a:ext cx="1143000" cy="0"/>
+          <a:off x="1819275" y="228600"/>
+          <a:ext cx="1514475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1786,6 +1467,59 @@
         <a:xfrm flipH="1">
           <a:off x="381001" y="6096000"/>
           <a:ext cx="352424" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線單箭頭接點 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002DE262-7475-4AE8-B0C8-85D61FBB24A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="219075"/>
+          <a:ext cx="0" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2114,7 +1848,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2126,192 +1860,172 @@
   <sheetData>
     <row r="1" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
